--- a/biology/Zoologie/Epirrhoe_galiata/Epirrhoe_galiata.xlsx
+++ b/biology/Zoologie/Epirrhoe_galiata/Epirrhoe_galiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélanthie du Caille-Lait
 Epirrhoe galiata, la Mélanthie du Caille-Lait, est une espèce de Lépidoptères de la famille des Geometridae et du genre Epirrhoe, originaire d'Europe, dont les chenilles parasitent Galium mollugo, le Caille-Lait.
@@ -512,9 +524,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles vivent librement sur les feuilles de Galium mollugo. L'espèce est bivoltine ; l'hibernation se fait sous la forme d'une pupe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles vivent librement sur les feuilles de Galium mollugo. L'espèce est bivoltine ; l'hibernation se fait sous la forme d'une pupe.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue en Europe, depuis l’Espagne jusqu’en Asie centrale. Elle fréquente les friches, les prairies sablonneuses, les éboulis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue en Europe, depuis l’Espagne jusqu’en Asie centrale. Elle fréquente les friches, les prairies sablonneuses, les éboulis.
 </t>
         </is>
       </c>
@@ -574,16 +590,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Epirrhoe galiata (Denis &amp; Schiffermüller, 1775). L'espèce a été initialement classée dans le genre Geometra sous le protonyme Geometra galiata, par les entomologistes autrichiens Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller, en 1775[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Mélanthie du Caille-Lait »[3],[4].
-Liste des sous-espèces
-Deux sous-espèces ont été décrites[3],[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Epirrhoe galiata (Denis &amp; Schiffermüller, 1775). L'espèce a été initialement classée dans le genre Geometra sous le protonyme Geometra galiata, par les entomologistes autrichiens Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller, en 1775.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Mélanthie du Caille-Lait »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Epirrhoe_galiata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epirrhoe_galiata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deux sous-espèces ont été décrites, :
 Epirrhoe galiata galiata
-Epirrhoe galiata orientata (Staudinger, 1901)
-Synonymes
-Epirrhoe galiata a pour synonymes[3] :
+Epirrhoe galiata orientata (Staudinger, 1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Epirrhoe_galiata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epirrhoe_galiata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Epirrhoe galiata a pour synonymes :
 Cidaria galiata (Denis &amp; Schiffermüller, 1775)
 Geometra galiata Denis &amp; Schiffermüller, 1775
 Larentia eophanata Krulikovski, 1906
